--- a/Converter/Awk/Anwesenheitskontrolle.xlsx
+++ b/Converter/Awk/Anwesenheitskontrolle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patri\source\repos\BCT.AK\Converter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patri\source\repos\BCT.AWK\Converter\Awk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C3F6F-018B-4E40-A4E6-25E0D5C574F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C0601F-A953-4AD7-988A-2EA07BF4FC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14110" yWindow="0" windowWidth="14200" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="0" windowWidth="26090" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AWK" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="97">
   <si>
     <t>Datum</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Geburtstag</t>
   </si>
   <si>
-    <t>Letzte Prüfung</t>
-  </si>
-  <si>
-    <t>Anzahl Trainings</t>
-  </si>
-  <si>
     <t>1. Training</t>
   </si>
   <si>
@@ -212,12 +206,6 @@
     <t>Vorname19</t>
   </si>
   <si>
-    <t>Nachname19</t>
-  </si>
-  <si>
-    <t>Vorname20</t>
-  </si>
-  <si>
     <t>Nachname20</t>
   </si>
   <si>
@@ -249,14 +237,105 @@
   </si>
   <si>
     <t>Zeit</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>Muttersprache</t>
+  </si>
+  <si>
+    <t>PEID</t>
+  </si>
+  <si>
+    <t>Nationalität</t>
+  </si>
+  <si>
+    <t>Strasse</t>
+  </si>
+  <si>
+    <t>Hausnummer</t>
+  </si>
+  <si>
+    <t>AHV Nr</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>männlich</t>
+  </si>
+  <si>
+    <t>weiblich</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>Weiblich</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>andere</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>AT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="ddd&quot;, &quot;dd&quot;. &quot;mmm&quot; .&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -300,10 +379,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -329,18 +409,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69F29BC1-E517-4771-9153-55DB63D80875}" name="Teilnehmer" displayName="Teilnehmer" ref="A8:R29" totalsRowCount="1">
-  <autoFilter ref="A8:R28" xr:uid="{69F29BC1-E517-4771-9153-55DB63D80875}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69F29BC1-E517-4771-9153-55DB63D80875}" name="Teilnehmer" displayName="Teilnehmer" ref="A8:Z29" totalsRowCount="1">
+  <autoFilter ref="A8:Z28" xr:uid="{69F29BC1-E517-4771-9153-55DB63D80875}"/>
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{FB110382-5C01-4F59-92B9-B1DCBCAABAFB}" name="Nummer" totalsRowLabel="Ergebnis" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",TRUE,Teilnehmer[[#This Row],[Nachname]],Teilnehmer[[#This Row],[Vorname]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6DCBCF46-ACFC-4ADE-B297-EE1BC978E792}" name="Funktion"/>
     <tableColumn id="2" xr3:uid="{48F1EDA1-7DD3-4423-8AA7-76498FA4A9E4}" name="Vorname"/>
     <tableColumn id="3" xr3:uid="{B200EED4-4B56-4A56-BB6B-6CE77E5EBEE5}" name="Nachname"/>
     <tableColumn id="4" xr3:uid="{A1FD8763-C70A-4463-B6ED-84C3B0AE9712}" name="Geburtstag"/>
-    <tableColumn id="5" xr3:uid="{5C890DE7-BB7E-4E87-B2B9-6DD0E1F12F02}" name="Letzte Prüfung"/>
-    <tableColumn id="6" xr3:uid="{608616BF-A70D-4CC8-9E6A-118D4DF94A04}" name="Anzahl Trainings"/>
+    <tableColumn id="5" xr3:uid="{5C890DE7-BB7E-4E87-B2B9-6DD0E1F12F02}" name="Geschlecht"/>
+    <tableColumn id="26" xr3:uid="{D40D282C-A58E-439C-B5DE-3094D2E8513B}" name="Muttersprache"/>
+    <tableColumn id="25" xr3:uid="{9A29C360-E57D-4342-9365-6F4DEF61AF52}" name="AHV Nr"/>
+    <tableColumn id="24" xr3:uid="{BE920E5E-3670-48F3-A993-A54D9EBA4E6A}" name="PEID"/>
+    <tableColumn id="23" xr3:uid="{08BC60EC-9A1A-44A3-BD6E-3EC2FF29D68F}" name="Nationalität"/>
+    <tableColumn id="22" xr3:uid="{55743721-D03B-47A5-8630-F2458E0782F7}" name="Strasse"/>
+    <tableColumn id="21" xr3:uid="{33767245-F851-48BC-9301-FA557A69DC28}" name="Hausnummer"/>
+    <tableColumn id="20" xr3:uid="{A2C5720C-FBBB-47FF-A77E-0027D89D0EFC}" name="PLZ"/>
+    <tableColumn id="18" xr3:uid="{FFBCF6AA-8CE0-4585-8B6B-D87FA9A81FC9}" name="Ort"/>
+    <tableColumn id="27" xr3:uid="{900B4539-CE4D-4B4E-A8B3-38F587945A07}" name="Land"/>
+    <tableColumn id="17" xr3:uid="{6DCBCF46-ACFC-4ADE-B297-EE1BC978E792}" name="Funktion"/>
     <tableColumn id="7" xr3:uid="{4A2C95F9-42DC-43BE-A724-99BFB4CA62E1}" name="1. Training" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Teilnehmer[1. Training],"Ja")</totalsRowFormula>
     </tableColumn>
@@ -380,8 +468,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{49C22EE4-858E-4E04-BD0A-4AEEDDED3AB9}" name="Trainings" displayName="Trainings" ref="G1:Q6" totalsRowShown="0">
-  <autoFilter ref="G1:Q6" xr:uid="{49C22EE4-858E-4E04-BD0A-4AEEDDED3AB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{49C22EE4-858E-4E04-BD0A-4AEEDDED3AB9}" name="Trainings" displayName="Trainings" ref="O1:Y6" totalsRowShown="0">
+  <autoFilter ref="O1:Y6" xr:uid="{49C22EE4-858E-4E04-BD0A-4AEEDDED3AB9}"/>
   <tableColumns count="11">
     <tableColumn id="6" xr3:uid="{50A97E9F-2ED4-4E16-920F-F928D38CC74D}" name="Beschreibung"/>
     <tableColumn id="7" xr3:uid="{F346FAD6-49CC-4B35-B2DF-88AAC677D310}" name="1. Training"/>
@@ -662,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,157 +763,152 @@
     <col min="3" max="3" width="12.6328125" customWidth="1"/>
     <col min="4" max="4" width="13.90625" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10" customWidth="1"/>
+    <col min="6" max="14" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="G2" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
-      </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="P3" s="2">
         <v>44791</v>
       </c>
-      <c r="I3" s="2">
+      <c r="Q3" s="2">
         <v>44792</v>
       </c>
-      <c r="J3" s="2">
+      <c r="R3" s="2">
         <v>44798</v>
       </c>
-      <c r="K3" s="2">
+      <c r="S3" s="2">
         <v>44805</v>
       </c>
-      <c r="L3" s="2">
+      <c r="T3" s="2">
         <v>44812</v>
       </c>
-      <c r="M3" s="2">
+      <c r="U3" s="2">
         <v>44819</v>
       </c>
-      <c r="N3" s="2">
+      <c r="V3" s="2">
         <v>44826</v>
       </c>
-      <c r="O3" s="2">
+      <c r="W3" s="2">
         <v>44833</v>
       </c>
-      <c r="P3" s="2">
+      <c r="X3" s="2">
         <v>44840</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Y3" s="2">
         <v>44847</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="G5" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O5" t="s">
         <v>2</v>
-      </c>
-      <c r="H5">
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>90</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-      <c r="M5">
-        <v>90</v>
-      </c>
-      <c r="N5">
-        <v>90</v>
-      </c>
-      <c r="O5">
-        <v>90</v>
       </c>
       <c r="P5">
         <v>90</v>
@@ -833,1094 +916,1381 @@
       <c r="Q5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="G6" t="s">
+      <c r="R5">
+        <v>90</v>
+      </c>
+      <c r="S5">
+        <v>90</v>
+      </c>
+      <c r="U5">
+        <v>90</v>
+      </c>
+      <c r="V5">
+        <v>90</v>
+      </c>
+      <c r="W5">
+        <v>90</v>
+      </c>
+      <c r="X5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
+      <c r="Q8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
+      <c r="R8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="S8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="T8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="U8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" t="s">
+      <c r="V8" t="s">
         <v>13</v>
       </c>
-      <c r="M8" t="s">
+      <c r="W8" t="s">
         <v>14</v>
       </c>
-      <c r="N8" t="s">
+      <c r="X8" t="s">
         <v>15</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Y8" t="s">
         <v>16</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Z8" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>123456001</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
         <v>36526</v>
       </c>
-      <c r="F9" s="1">
-        <v>44013</v>
-      </c>
-      <c r="G9">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="O9" t="s">
         <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R9">
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>123456002</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1">
-        <v>36720</v>
-      </c>
-      <c r="H10" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>36527</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
         <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
-      </c>
-      <c r="R10">
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z10">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>123456003</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1">
-        <v>38616</v>
-      </c>
-      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>36528</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
         <v>63</v>
       </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" t="s">
-        <v>64</v>
-      </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
-      </c>
-      <c r="R11">
+        <v>59</v>
+      </c>
+      <c r="R11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>123456004</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1">
-        <v>44013</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" t="s">
-        <v>63</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>36529</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="O12" t="s">
         <v>63</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
-      </c>
-      <c r="R12">
+        <v>60</v>
+      </c>
+      <c r="R12" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" t="s">
+        <v>59</v>
+      </c>
+      <c r="T12" t="s">
+        <v>59</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z12">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>123456005</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <v>36530</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" t="s">
         <v>64</v>
       </c>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" t="s">
-        <v>63</v>
-      </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13">
+        <v>59</v>
+      </c>
+      <c r="R13" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>59</v>
+      </c>
+      <c r="W13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>123456006</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>36531</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" t="s">
         <v>64</v>
       </c>
-      <c r="M14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" t="s">
-        <v>63</v>
-      </c>
       <c r="P14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>64</v>
-      </c>
-      <c r="R14">
+        <v>59</v>
+      </c>
+      <c r="R14" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" t="s">
+        <v>59</v>
+      </c>
+      <c r="T14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>59</v>
+      </c>
+      <c r="W14" t="s">
+        <v>59</v>
+      </c>
+      <c r="X14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z14">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>123456007</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36532</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="M15" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" t="s">
-        <v>63</v>
-      </c>
       <c r="P15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15">
+        <v>59</v>
+      </c>
+      <c r="R15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z15">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>123456008</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="D16" s="1">
+        <v>36533</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" t="s">
         <v>64</v>
       </c>
-      <c r="M16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" t="s">
-        <v>63</v>
-      </c>
       <c r="P16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16">
+        <v>59</v>
+      </c>
+      <c r="R16" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" t="s">
+        <v>59</v>
+      </c>
+      <c r="T16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>59</v>
+      </c>
+      <c r="W16" t="s">
+        <v>59</v>
+      </c>
+      <c r="X16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>123456009</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>36534</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" t="s">
         <v>64</v>
       </c>
-      <c r="M17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" t="s">
-        <v>63</v>
-      </c>
       <c r="P17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q17" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17">
+        <v>59</v>
+      </c>
+      <c r="R17" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" t="s">
+        <v>59</v>
+      </c>
+      <c r="T17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>59</v>
+      </c>
+      <c r="W17" t="s">
+        <v>59</v>
+      </c>
+      <c r="X17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z17">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>123456010</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <v>36535</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" t="s">
         <v>64</v>
       </c>
-      <c r="M18" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" t="s">
-        <v>63</v>
-      </c>
       <c r="P18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q18" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18">
+        <v>59</v>
+      </c>
+      <c r="R18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>59</v>
+      </c>
+      <c r="W18" t="s">
+        <v>59</v>
+      </c>
+      <c r="X18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z18">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>123456011</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>36536</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="O19" t="s">
         <v>64</v>
       </c>
       <c r="P19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q19" t="s">
-        <v>63</v>
-      </c>
-      <c r="R19">
+        <v>59</v>
+      </c>
+      <c r="R19" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z19">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>123456012</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="D20" s="1">
+        <v>36537</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="O20" t="s">
         <v>64</v>
       </c>
       <c r="P20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q20" t="s">
-        <v>63</v>
-      </c>
-      <c r="R20">
+        <v>59</v>
+      </c>
+      <c r="R20" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" t="s">
+        <v>59</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z20">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>123456013</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N21" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="D21" s="1">
+        <v>36538</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="O21" t="s">
         <v>64</v>
       </c>
       <c r="P21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q21" t="s">
-        <v>63</v>
-      </c>
-      <c r="R21">
+        <v>59</v>
+      </c>
+      <c r="R21" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" t="s">
+        <v>60</v>
+      </c>
+      <c r="T21" t="s">
+        <v>59</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z21">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>123456014</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="D22" s="1">
+        <v>36539</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="N22" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="O22" t="s">
         <v>64</v>
       </c>
       <c r="P22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q22" t="s">
-        <v>63</v>
-      </c>
-      <c r="R22">
+        <v>59</v>
+      </c>
+      <c r="R22" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" t="s">
+        <v>59</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>60</v>
+      </c>
+      <c r="X22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z22">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>123456015</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="D23" s="1">
+        <v>36540</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="N23" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="O23" t="s">
         <v>64</v>
       </c>
       <c r="P23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q23" t="s">
-        <v>63</v>
-      </c>
-      <c r="R23">
+        <v>59</v>
+      </c>
+      <c r="R23" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" t="s">
+        <v>60</v>
+      </c>
+      <c r="T23" t="s">
+        <v>59</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>60</v>
+      </c>
+      <c r="W23" t="s">
+        <v>60</v>
+      </c>
+      <c r="X23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z23">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>123456016</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N24" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="1">
+        <v>36541</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="O24" t="s">
         <v>64</v>
       </c>
       <c r="P24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q24" t="s">
-        <v>63</v>
-      </c>
-      <c r="R24">
+        <v>59</v>
+      </c>
+      <c r="R24" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" t="s">
+        <v>59</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z24">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>123456017</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="D25" s="1">
+        <v>36542</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="N25" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="O25" t="s">
         <v>64</v>
       </c>
       <c r="P25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q25" t="s">
-        <v>63</v>
-      </c>
-      <c r="R25">
+        <v>59</v>
+      </c>
+      <c r="R25" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" t="s">
+        <v>60</v>
+      </c>
+      <c r="T25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>60</v>
+      </c>
+      <c r="X25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z25">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>123456018</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1">
+        <v>36543</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" t="s">
+        <v>94</v>
+      </c>
+      <c r="O26" t="s">
         <v>64</v>
       </c>
-      <c r="I26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" t="s">
-        <v>63</v>
-      </c>
-      <c r="N26" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" t="s">
-        <v>63</v>
-      </c>
       <c r="P26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q26" t="s">
-        <v>63</v>
-      </c>
-      <c r="R26">
+        <v>59</v>
+      </c>
+      <c r="R26" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" t="s">
+        <v>59</v>
+      </c>
+      <c r="T26" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
+        <v>59</v>
+      </c>
+      <c r="X26" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z26">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>123456019</v>
-      </c>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" t="s">
-        <v>64</v>
-      </c>
-      <c r="N27" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="O27" t="s">
         <v>64</v>
       </c>
       <c r="P27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R27">
+        <v>60</v>
+      </c>
+      <c r="R27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" t="s">
+        <v>60</v>
+      </c>
+      <c r="T27" t="s">
+        <v>59</v>
+      </c>
+      <c r="U27" t="s">
+        <v>60</v>
+      </c>
+      <c r="V27" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" t="s">
+        <v>60</v>
+      </c>
+      <c r="X27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z27">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>123456020</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" t="s">
-        <v>64</v>
-      </c>
-      <c r="N28" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="O28" t="s">
         <v>64</v>
       </c>
       <c r="P28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q28" t="s">
-        <v>64</v>
-      </c>
-      <c r="R28">
+        <v>60</v>
+      </c>
+      <c r="R28" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" t="s">
+        <v>60</v>
+      </c>
+      <c r="T28" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" t="s">
+        <v>60</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>60</v>
+      </c>
+      <c r="X28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z28">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="H29">
+      <c r="P29">
         <f>COUNTIF(Teilnehmer[1. Training],"Ja")</f>
         <v>17</v>
       </c>
-      <c r="I29">
+      <c r="Q29">
         <f>COUNTIF(Teilnehmer[2. Training],"Ja")</f>
         <v>17</v>
       </c>
-      <c r="J29">
+      <c r="R29">
         <f>COUNTIF(Teilnehmer[3. Training],"Ja")</f>
         <v>10</v>
       </c>
-      <c r="K29">
+      <c r="S29">
         <f>COUNTIF(Teilnehmer[4. Training],"Ja")</f>
         <v>10</v>
       </c>
-      <c r="L29">
+      <c r="T29">
         <f>COUNTIF(Teilnehmer[5. Training],"Ja")</f>
         <v>12</v>
       </c>
-      <c r="M29">
+      <c r="U29">
         <f>COUNTIF(Teilnehmer[6. Training],"Ja")</f>
         <v>17</v>
       </c>
-      <c r="N29">
+      <c r="V29">
         <f>COUNTIF(Teilnehmer[7. Training],"Ja")</f>
         <v>10</v>
       </c>
-      <c r="O29">
+      <c r="W29">
         <f>COUNTIF(Teilnehmer[8. Training],"Ja")</f>
         <v>10</v>
       </c>
-      <c r="P29">
+      <c r="X29">
         <f>COUNTIF(Teilnehmer[9. Training],"Ja")</f>
         <v>17</v>
       </c>
-      <c r="Q29">
+      <c r="Y29">
         <f>COUNTIF(Teilnehmer[10. Training],"Ja")</f>
         <v>12</v>
       </c>
-      <c r="R29">
+      <c r="Z29">
         <f>SUBTOTAL(109,Teilnehmer[Summe])</f>
         <v>132</v>
       </c>
@@ -1928,13 +2298,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:Q28" xr:uid="{F8398E10-FB7D-447B-9E5C-459F1F3DED62}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P9:Y28" xr:uid="{F8398E10-FB7D-447B-9E5C-459F1F3DED62}">
       <formula1>"Ja,Nein"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B28" xr:uid="{828AF3C8-DC2E-4108-9102-342614DE7582}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O28" xr:uid="{828AF3C8-DC2E-4108-9102-342614DE7582}">
       <formula1>"Teilnehmer/in,Leiter/in"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:Q2" xr:uid="{747E8BDA-A1DB-411D-AD8A-84CAC25E9469}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Y2" xr:uid="{747E8BDA-A1DB-411D-AD8A-84CAC25E9469}">
       <formula1>"Training,Wettkampf,Trainingstag,Lagertag"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Converter/Awk/Anwesenheitskontrolle.xlsx
+++ b/Converter/Awk/Anwesenheitskontrolle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patri\source\repos\BCT.AWK\Converter\Awk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C0601F-A953-4AD7-988A-2EA07BF4FC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E20A19-B842-4475-8A22-47C9DBBB6114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="0" windowWidth="26090" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AWK" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="ddd&quot;, &quot;dd&quot;. &quot;mmm&quot; .&quot;"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -383,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -419,10 +419,10 @@
     <tableColumn id="3" xr3:uid="{B200EED4-4B56-4A56-BB6B-6CE77E5EBEE5}" name="Nachname"/>
     <tableColumn id="4" xr3:uid="{A1FD8763-C70A-4463-B6ED-84C3B0AE9712}" name="Geburtstag"/>
     <tableColumn id="5" xr3:uid="{5C890DE7-BB7E-4E87-B2B9-6DD0E1F12F02}" name="Geschlecht"/>
-    <tableColumn id="26" xr3:uid="{D40D282C-A58E-439C-B5DE-3094D2E8513B}" name="Muttersprache"/>
     <tableColumn id="25" xr3:uid="{9A29C360-E57D-4342-9365-6F4DEF61AF52}" name="AHV Nr"/>
     <tableColumn id="24" xr3:uid="{BE920E5E-3670-48F3-A993-A54D9EBA4E6A}" name="PEID"/>
     <tableColumn id="23" xr3:uid="{08BC60EC-9A1A-44A3-BD6E-3EC2FF29D68F}" name="Nationalität"/>
+    <tableColumn id="26" xr3:uid="{D40D282C-A58E-439C-B5DE-3094D2E8513B}" name="Muttersprache"/>
     <tableColumn id="22" xr3:uid="{55743721-D03B-47A5-8630-F2458E0782F7}" name="Strasse"/>
     <tableColumn id="21" xr3:uid="{33767245-F851-48BC-9301-FA557A69DC28}" name="Hausnummer"/>
     <tableColumn id="20" xr3:uid="{A2C5720C-FBBB-47FF-A77E-0027D89D0EFC}" name="PLZ"/>
@@ -753,7 +753,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="I8" sqref="I8:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,16 +957,16 @@
         <v>67</v>
       </c>
       <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
       </c>
       <c r="J8" t="s">
         <v>71</v>
@@ -1036,13 +1036,13 @@
       <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1105,11 +1105,11 @@
       <c r="E10" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
         <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>92</v>
       </c>
       <c r="N10" t="s">
         <v>93</v>
@@ -1168,11 +1168,11 @@
       <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
         <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>85</v>
       </c>
       <c r="N11" t="s">
         <v>82</v>
@@ -1231,13 +1231,13 @@
       <c r="E12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1300,11 +1300,11 @@
       <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
         <v>86</v>
-      </c>
-      <c r="I13" t="s">
-        <v>90</v>
       </c>
       <c r="N13" t="s">
         <v>84</v>
@@ -1363,11 +1363,11 @@
       <c r="E14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
         <v>87</v>
-      </c>
-      <c r="I14" t="s">
-        <v>85</v>
       </c>
       <c r="N14" t="s">
         <v>94</v>
@@ -1426,11 +1426,11 @@
       <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
         <v>88</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="N15" t="s">
         <v>89</v>
@@ -1489,11 +1489,11 @@
       <c r="E16" t="s">
         <v>77</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
         <v>85</v>
-      </c>
-      <c r="I16" t="s">
-        <v>92</v>
       </c>
       <c r="N16" t="s">
         <v>95</v>
@@ -1552,11 +1552,11 @@
       <c r="E17" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>85</v>
       </c>
       <c r="N17" t="s">
         <v>86</v>
@@ -1615,11 +1615,11 @@
       <c r="E18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
         <v>83</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="N18" t="s">
         <v>87</v>
@@ -1678,11 +1678,11 @@
       <c r="E19" t="s">
         <v>80</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
         <v>84</v>
-      </c>
-      <c r="I19" t="s">
-        <v>90</v>
       </c>
       <c r="N19" t="s">
         <v>88</v>
@@ -1741,10 +1741,10 @@
       <c r="E20" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" t="s">
         <v>85</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N20" t="s">
@@ -1804,11 +1804,11 @@
       <c r="E21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
         <v>86</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>91</v>
@@ -1867,11 +1867,11 @@
       <c r="E22" t="s">
         <v>77</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" t="s">
         <v>87</v>
-      </c>
-      <c r="I22" t="s">
-        <v>92</v>
       </c>
       <c r="N22" t="s">
         <v>93</v>
@@ -1930,11 +1930,11 @@
       <c r="E23" t="s">
         <v>78</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
         <v>88</v>
-      </c>
-      <c r="I23" t="s">
-        <v>85</v>
       </c>
       <c r="N23" t="s">
         <v>82</v>
@@ -1993,11 +1993,11 @@
       <c r="E24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" t="s">
         <v>85</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>83</v>
@@ -2056,7 +2056,7 @@
       <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
         <v>90</v>
       </c>
       <c r="N25" t="s">
@@ -2116,7 +2116,7 @@
       <c r="E26" t="s">
         <v>81</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>85</v>
       </c>
       <c r="N26" t="s">

--- a/Converter/Awk/Anwesenheitskontrolle.xlsx
+++ b/Converter/Awk/Anwesenheitskontrolle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patri\source\repos\BCT.AWK\Converter\Awk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E20A19-B842-4475-8A22-47C9DBBB6114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25212BC8-29F3-4251-B334-B6FC2BF9BA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13490" yWindow="0" windowWidth="13580" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AWK" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="102">
   <si>
     <t>Datum</t>
   </si>
@@ -327,6 +327,21 @@
   </si>
   <si>
     <t>AT</t>
+  </si>
+  <si>
+    <t>Fokus</t>
+  </si>
+  <si>
+    <t>Lichtensteig</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
+    <t>Technick</t>
+  </si>
+  <si>
+    <t>Kondition</t>
   </si>
 </sst>
 </file>
@@ -409,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69F29BC1-E517-4771-9153-55DB63D80875}" name="Teilnehmer" displayName="Teilnehmer" ref="A8:Z29" totalsRowCount="1">
-  <autoFilter ref="A8:Z28" xr:uid="{69F29BC1-E517-4771-9153-55DB63D80875}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69F29BC1-E517-4771-9153-55DB63D80875}" name="Teilnehmer" displayName="Teilnehmer" ref="A9:Z30" totalsRowCount="1">
+  <autoFilter ref="A9:Z29" xr:uid="{69F29BC1-E517-4771-9153-55DB63D80875}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{FB110382-5C01-4F59-92B9-B1DCBCAABAFB}" name="Nummer" totalsRowLabel="Ergebnis" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",TRUE,Teilnehmer[[#This Row],[Nachname]],Teilnehmer[[#This Row],[Vorname]])</calculatedColumnFormula>
@@ -468,8 +483,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{49C22EE4-858E-4E04-BD0A-4AEEDDED3AB9}" name="Trainings" displayName="Trainings" ref="O1:Y6" totalsRowShown="0">
-  <autoFilter ref="O1:Y6" xr:uid="{49C22EE4-858E-4E04-BD0A-4AEEDDED3AB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{49C22EE4-858E-4E04-BD0A-4AEEDDED3AB9}" name="Trainings" displayName="Trainings" ref="O1:Y7" totalsRowShown="0">
+  <autoFilter ref="O1:Y7" xr:uid="{49C22EE4-858E-4E04-BD0A-4AEEDDED3AB9}"/>
   <tableColumns count="11">
     <tableColumn id="6" xr3:uid="{50A97E9F-2ED4-4E16-920F-F928D38CC74D}" name="Beschreibung"/>
     <tableColumn id="7" xr3:uid="{F346FAD6-49CC-4B35-B2DF-88AAC677D310}" name="1. Training"/>
@@ -750,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I29"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,25 +869,25 @@
         <v>44798</v>
       </c>
       <c r="S3" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="T3" s="2">
-        <v>44812</v>
+        <v>44814</v>
       </c>
       <c r="U3" s="2">
         <v>44819</v>
       </c>
       <c r="V3" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="W3" s="2">
         <v>44833</v>
       </c>
       <c r="X3" s="2">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="Y3" s="2">
-        <v>44847</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
@@ -939,180 +954,176 @@
       <c r="O6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="P6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>73</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>69</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>70</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>68</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>71</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
         <v>72</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" t="s">
         <v>74</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
         <v>65</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N9" t="s">
         <v>75</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O9" t="s">
         <v>62</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P9" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q9" t="s">
         <v>8</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R9" t="s">
         <v>9</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S9" t="s">
         <v>10</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T9" t="s">
         <v>11</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U9" t="s">
         <v>12</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V9" t="s">
         <v>13</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W9" t="s">
         <v>14</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X9" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y9" t="s">
         <v>16</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z9" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>123456001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1">
-        <v>36526</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U9" t="s">
-        <v>60</v>
-      </c>
-      <c r="V9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z9">
-        <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>123456002</v>
+        <v>123456001</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>36527</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" t="s">
-        <v>93</v>
+        <v>36526</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="O10" t="s">
         <v>63</v>
@@ -1127,16 +1138,16 @@
         <v>59</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
         <v>59</v>
@@ -1154,28 +1165,28 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>123456003</v>
+        <v>123456002</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
-        <v>36528</v>
+        <v>36527</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
         <v>63</v>
@@ -1187,10 +1198,10 @@
         <v>59</v>
       </c>
       <c r="R11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T11" t="s">
         <v>59</v>
@@ -1199,10 +1210,10 @@
         <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X11" t="s">
         <v>59</v>
@@ -1217,34 +1228,28 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>123456004</v>
+        <v>123456003</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
-        <v>36529</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="1" t="s">
+        <v>36528</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>83</v>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
       </c>
       <c r="O12" t="s">
         <v>63</v>
@@ -1253,10 +1258,10 @@
         <v>59</v>
       </c>
       <c r="Q12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S12" t="s">
         <v>59</v>
@@ -1271,10 +1276,10 @@
         <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y12" t="s">
         <v>59</v>
@@ -1286,37 +1291,43 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>123456005</v>
+        <v>123456004</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
-        <v>36530</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" t="s">
-        <v>84</v>
+        <v>36529</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R13" t="s">
         <v>59</v>
@@ -1337,10 +1348,10 @@
         <v>59</v>
       </c>
       <c r="X13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z13">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
@@ -1349,34 +1360,34 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>123456006</v>
+        <v>123456005</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
-        <v>36531</v>
+        <v>36530</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="O14" t="s">
         <v>64</v>
       </c>
       <c r="P14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q14" t="s">
         <v>59</v>
@@ -1388,7 +1399,7 @@
         <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
         <v>59</v>
@@ -1412,28 +1423,28 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>123456007</v>
+        <v>123456006</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
-        <v>36532</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>91</v>
+        <v>36531</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
@@ -1475,28 +1486,28 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>123456008</v>
+        <v>123456007</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
-        <v>36533</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s">
-        <v>92</v>
+        <v>36532</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O16" t="s">
         <v>64</v>
@@ -1538,28 +1549,28 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>123456009</v>
+        <v>123456008</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1">
-        <v>36534</v>
+        <v>36533</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="N17" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O17" t="s">
         <v>64</v>
@@ -1601,28 +1612,28 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>123456010</v>
+        <v>123456009</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
-        <v>36535</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" t="s">
-        <v>83</v>
+        <v>36534</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="N18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O18" t="s">
         <v>64</v>
@@ -1664,28 +1675,28 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>123456011</v>
+        <v>123456010</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1">
-        <v>36536</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" t="s">
-        <v>90</v>
+        <v>36535</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O19" t="s">
         <v>64</v>
@@ -1697,58 +1708,58 @@
         <v>59</v>
       </c>
       <c r="R19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
         <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X19" t="s">
         <v>59</v>
       </c>
       <c r="Y19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z19">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>123456012</v>
+        <v>123456011</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1">
-        <v>36537</v>
+        <v>36536</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
       </c>
       <c r="N20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O20" t="s">
         <v>64</v>
@@ -1790,28 +1801,28 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>123456013</v>
+        <v>123456012</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1">
-        <v>36538</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>91</v>
+        <v>36537</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" t="s">
+        <v>96</v>
       </c>
       <c r="O21" t="s">
         <v>64</v>
@@ -1853,28 +1864,28 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>123456014</v>
+        <v>123456013</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1">
-        <v>36539</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s">
-        <v>92</v>
+        <v>36538</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
-      </c>
-      <c r="N22" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="O22" t="s">
         <v>64</v>
@@ -1916,28 +1927,28 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>123456015</v>
+        <v>123456014</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1">
-        <v>36540</v>
+        <v>36539</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N23" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="O23" t="s">
         <v>64</v>
@@ -1979,28 +1990,28 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>123456016</v>
+        <v>123456015</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1">
-        <v>36541</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>89</v>
+        <v>36540</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="N24" t="s">
+        <v>82</v>
       </c>
       <c r="O24" t="s">
         <v>64</v>
@@ -2042,25 +2053,28 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>123456017</v>
+        <v>123456016</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
-        <v>36542</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>90</v>
-      </c>
-      <c r="N25" t="s">
-        <v>84</v>
+        <v>36541</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="O25" t="s">
         <v>64</v>
@@ -2102,31 +2116,31 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>123456018</v>
+        <v>123456017</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
-        <v>36543</v>
+        <v>36542</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N26" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="O26" t="s">
         <v>64</v>
       </c>
       <c r="P26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q26" t="s">
         <v>59</v>
@@ -2135,10 +2149,10 @@
         <v>60</v>
       </c>
       <c r="S26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
         <v>59</v>
@@ -2147,56 +2161,73 @@
         <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y26" t="s">
         <v>59</v>
       </c>
       <c r="Z26">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>123456018</v>
+      </c>
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1">
+        <v>36543</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" t="s">
+        <v>94</v>
+      </c>
       <c r="O27" t="s">
         <v>64</v>
       </c>
       <c r="P27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z27">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
@@ -2204,93 +2235,136 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>56</v>
+      <c r="B28" t="s">
+        <v>55</v>
       </c>
       <c r="D28" s="1"/>
       <c r="O28" t="s">
         <v>64</v>
       </c>
       <c r="P28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q28" t="s">
         <v>60</v>
       </c>
       <c r="R28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S28" t="s">
         <v>60</v>
       </c>
       <c r="T28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
         <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W28" t="s">
         <v>60</v>
       </c>
       <c r="X28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y28" t="s">
         <v>60</v>
       </c>
       <c r="Z28">
         <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="O29" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>60</v>
+      </c>
+      <c r="R29" t="s">
+        <v>60</v>
+      </c>
+      <c r="S29" t="s">
+        <v>60</v>
+      </c>
+      <c r="T29" t="s">
+        <v>60</v>
+      </c>
+      <c r="U29" t="s">
+        <v>60</v>
+      </c>
+      <c r="V29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
+        <v>60</v>
+      </c>
+      <c r="X29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z29">
+        <f>COUNTIF(Teilnehmer[[#This Row],[1. Training]:[10. Training]],"JA")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="P29">
+      <c r="P30">
         <f>COUNTIF(Teilnehmer[1. Training],"Ja")</f>
         <v>17</v>
       </c>
-      <c r="Q29">
+      <c r="Q30">
         <f>COUNTIF(Teilnehmer[2. Training],"Ja")</f>
         <v>17</v>
       </c>
-      <c r="R29">
+      <c r="R30">
         <f>COUNTIF(Teilnehmer[3. Training],"Ja")</f>
         <v>10</v>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>COUNTIF(Teilnehmer[4. Training],"Ja")</f>
         <v>10</v>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>COUNTIF(Teilnehmer[5. Training],"Ja")</f>
         <v>12</v>
       </c>
-      <c r="U29">
+      <c r="U30">
         <f>COUNTIF(Teilnehmer[6. Training],"Ja")</f>
         <v>17</v>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>COUNTIF(Teilnehmer[7. Training],"Ja")</f>
         <v>10</v>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>COUNTIF(Teilnehmer[8. Training],"Ja")</f>
         <v>10</v>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>COUNTIF(Teilnehmer[9. Training],"Ja")</f>
         <v>17</v>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>COUNTIF(Teilnehmer[10. Training],"Ja")</f>
         <v>12</v>
       </c>
-      <c r="Z29">
+      <c r="Z30">
         <f>SUBTOTAL(109,Teilnehmer[Summe])</f>
         <v>132</v>
       </c>
@@ -2298,10 +2372,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P9:Y28" xr:uid="{F8398E10-FB7D-447B-9E5C-459F1F3DED62}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:Y29" xr:uid="{F8398E10-FB7D-447B-9E5C-459F1F3DED62}">
       <formula1>"Ja,Nein"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O28" xr:uid="{828AF3C8-DC2E-4108-9102-342614DE7582}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O29" xr:uid="{828AF3C8-DC2E-4108-9102-342614DE7582}">
       <formula1>"Teilnehmer/in,Leiter/in"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Y2" xr:uid="{747E8BDA-A1DB-411D-AD8A-84CAC25E9469}">
